--- a/biology/Zoologie/Gila_atraria/Gila_atraria.xlsx
+++ b/biology/Zoologie/Gila_atraria/Gila_atraria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Méné de l'Utah (Gila atraria) est un poisson de la famille des Cyprinidae présent dans l'ouest de l'Amérique du Nord.
 </t>
@@ -511,7 +523,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Méné de l'Utah est abondant dans la partie haute de la rivière Snake ainsi que dans la région du lac Utah (zone du lac Bonneville au Pléistocène). Il apprécie les zones aquatiques proches de végétation que ce soit en rivière ou en lac. On le trouve également près de sources d'eau salée dans les zones désertiques.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa taille est en général comprise entre 15 et 20 cm, bien que dans certaines régions il puisse atteindre 40 cm. Un poisson de 56 cm a même été relevé dans le lac Bear, à la frontière entre l'Utah et l'Idaho.
 Sa nageoire dorsale dispose de neuf rayons. Son dos est de couleur métallique ou vert olive à noir. Les flancs sont argentés ou dorés. La coloration dorée apparaît d'autant plus chez les mâles durant la période de reproduction.
